--- a/chapters/ch04-Affluence/datasets/GDPpc_time_series.xlsx
+++ b/chapters/ch04-Affluence/datasets/GDPpc_time_series.xlsx
@@ -8,39 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch04-Affluence/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A25FD-3AF6-7E41-A8ED-E09F75D32385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521AEF89-8A62-5A4F-AB56-DCAB71612DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{948EABB3-332F-5340-A3D7-AFB2F3A7255A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="28340" activeTab="3" xr2:uid="{948EABB3-332F-5340-A3D7-AFB2F3A7255A}"/>
   </bookViews>
   <sheets>
     <sheet name="GDPpc" sheetId="3" r:id="rId1"/>
     <sheet name="GDPpc-Maddison-WB" sheetId="5" r:id="rId2"/>
     <sheet name="GDPpc-DeLong-WB" sheetId="7" r:id="rId3"/>
-    <sheet name="meta" sheetId="4" r:id="rId4"/>
-    <sheet name="Maddison GDP growth rates" sheetId="1" r:id="rId5"/>
-    <sheet name="De Long GDP growth rates" sheetId="6" r:id="rId6"/>
-    <sheet name="World Bank GDP pc data" sheetId="2" r:id="rId7"/>
+    <sheet name="GDPpc-Nordhaus-WB" sheetId="9" r:id="rId4"/>
+    <sheet name="meta" sheetId="4" r:id="rId5"/>
+    <sheet name="Maddison GDP growth rates" sheetId="1" r:id="rId6"/>
+    <sheet name="De Long GDP growth rates" sheetId="6" r:id="rId7"/>
+    <sheet name="Nordhaus GDP growth rates" sheetId="8" r:id="rId8"/>
+    <sheet name="World Bank GDP pc data" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -100,6 +93,9 @@
   </si>
   <si>
     <t>De Long growth rates</t>
+  </si>
+  <si>
+    <t>Nordhaus growth rates</t>
   </si>
 </sst>
 </file>
@@ -4854,6 +4850,1630 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2EE5-9147-85C2-6EB85E14BB3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="77041520"/>
+        <c:axId val="77043168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77041520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77043168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77043168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77041520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GDPpc-Nordhaus-WB'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gdppc_2017_intl_dollars_per_capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'GDPpc-Nordhaus-WB'!$B$2:$B$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="221"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1817</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1823</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1837</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1864</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1871</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1884</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1887</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1895</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1899</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GDPpc-Nordhaus-WB'!$C$2:$C$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="221"/>
+                <c:pt idx="0">
+                  <c:v>1338.7846468520577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1341.1288456693876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1343.4771491559097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1345.82956449886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1348.1860988980586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1350.5467595659327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1352.9115537275384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1355.2804886205827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1357.6535714954459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1360.0308096152037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1362.4122102556491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1364.7977807053153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1367.1875282654973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1369.5814602502749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1371.9795839865342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1374.3819068139915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1376.788436085214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1379.199179165644</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1381.6141434336198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1384.0333362803997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1386.4567651101838</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1388.8844373401369</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1391.316360400411</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1393.7525417341687</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1396.192988797605</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1398.6377090599708</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1401.0867100035957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1403.5399991239108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1405.9975839294714</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1408.4594719419804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1410.9256706963108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1413.3961877405297</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1415.8710306359203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1418.3502069570056</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1420.8337242915718</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1423.321590240691</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1425.8138124187444</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1428.3103984534466</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1430.8113559858677</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1433.3166926704575</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1435.8264161750687</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1438.3405341809803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1440.8590543829207</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1443.3819844890922</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1445.9093322211943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1448.4411053144465</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1450.9773115176129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1453.5179585930255</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1456.0630543166083</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1458.6126064779005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1461.1666228800811</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1472.0109069726802</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1482.9356736711914</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1493.9415202902733</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1505.0290485776525</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1516.1988647470228</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1527.4515795111913</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1538.7878081154688</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1550.2081703713081</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1561.7132906901934</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1573.3037981177793</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1584.9803263682843</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1596.7435138591395</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1608.5940037458938</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1620.5324439573792</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1632.559487231136</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1644.6757911491015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1656.8820181735637</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1669.1788356833815</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1681.5669160104737</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1694.046936476579</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1706.6195794302889</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1719.285532284355</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1732.0454875532737</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1744.9001428911499</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1757.8502011298408</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1778.1388201389543</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1798.6616047561683</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1819.4212576559225</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1840.420512706175</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1861.6621353284288</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1883.1489228619141</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1904.8837049319741</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1926.8693438227017</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1949.1087348538786</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1971.6048067622635</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1994.3605220872817</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2017.3788775611658</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2040.6629045036007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2064.2156692209205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2088.0402734099166</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2112.1398545663033</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2136.5175863978993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2161.1766792425778</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2186.120380491041</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2211.3519750144728</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2236.8747855971283</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2262.6921733739155</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2288.8075382730294</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2315.2243194636917</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2341.9459958090606</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2366.0465981807793</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2390.3952161069637</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2414.9944018771507</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2439.8467340460916</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2464.9548177040442</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2490.3212847498457</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2515.9487941667953</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2541.8400323013757</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2567.9977131448441</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2594.4245786177203</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2621.1233988572017</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2648.0969725075379</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2675.3481270133907</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2702.8797189162165</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2730.6946341536955</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2758.7957883622444</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2787.186127182641</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2815.8686265687952</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2844.8462930996957</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2874.1221642945684</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2939.6713516834184</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3006.715498479602</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3075.2886997454475</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3145.4258281384937</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3217.1625516458553</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3210.0852469386027</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3203.0235113053759</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3195.9773104964033</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3188.9466103372592</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3181.9313767286958</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3217.0362799264076</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3252.5284806747622</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3288.4122518638428</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3324.6919135247213</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3361.3718333495453</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3398.4564272173634</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3435.9501597257499</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3473.8575447282956</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3512.1831458780298</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3550.9315771768347</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3590.2624445706188</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3630.0289489504516</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3670.2359155235104</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3710.8882229419842</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3751.9908038950434</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3793.5486457073648</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3835.5667909442855</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3878.0503380236605</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3921.004441834496</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3964.4343143624369</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4092.0528339373941</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4223.7795024302186</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4359.746564656064</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4500.0905225033994</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4644.9522719728284</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4746.8203179444108</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4850.9224232092793</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4957.3075827282992</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5066.0258659665806</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5177.1284404583357</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5337.1480577369493</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5502.1137137720843</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5672.1782854409448</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5847.4993748848774</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6028.2394555623368</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6208.8230122037785</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6394.8161782626394</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6586.3810054483529</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6783.6843999347857</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6986.8982677818803</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7112.4724856699722</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7240.3036255274192</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7370.432250591336</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7502.8996531343246</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7637.7478675672919</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7785.456868382018</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7936.022463745293</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8089.4998983095738</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8245.94548512242</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8405.4166262885501</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8501.1180029578354</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8597.9090047942718</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8695.8020379203863</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8794.8096497108345</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8894.9445304006549</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9041.0060116028853</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9189.4659289300489</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9340.3636664538262</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9493.7392549610977</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9649.6333825734837</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9621.0605681642737</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9623.0961900748116</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9631.3996042989857</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9753.3105911998318</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9911.4659841602952</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10139.760133452766</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10385.446738111601</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10497.322682403581</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10720.04842860996</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11079.909240603543</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>11191.494538328645</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>11350.058986144439</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>11627.146297818948</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12065.978796452915</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12461.041134414598</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12941.187285524144</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>13445.271290252649</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>13635.754966466211</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13381.807288988113</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>13890.513904110498</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>14260.359827294367</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>14539.897691370574</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>14843.539364316446</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>15177.201701007612</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>15509.996466721966</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>15829.678514203513</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>16242.884608711729</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>16636.848010956524</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>16915.287846149524</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>16194.040309870441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21E7-F446-AD26-5632F698F45A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5125,6 +6745,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6712,6 +8372,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6834,6 +9010,235 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9800F6EE-59F0-C947-A1EC-FE47A4BF33C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15588A2F-A17B-2D41-BDF4-AE6A693E106E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="1219200"/>
+          <a:ext cx="4889500" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D58909-5AC6-7842-8E03-0C19DD9ABB44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="3657600"/>
+          <a:ext cx="4610100" cy="5422900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646CF3D5-F4B9-4B47-887F-4228BEF638AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="1219200"/>
+          <a:ext cx="4889500" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1CD6BC-008C-5B45-8D49-2C7449D6ECF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7607300" y="3708400"/>
+          <a:ext cx="4610100" cy="5422900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7138,7 +9543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEAD223-773A-6E4E-B677-CE64AF97E65E}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
@@ -13828,7 +16233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0403960-5825-AC46-B574-9D9FE97A52FC}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
@@ -17170,6 +19575,3351 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618E94E-001A-E942-A835-BE6D69992919}">
+  <dimension ref="A1:D222"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D191"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1800</v>
+      </c>
+      <c r="C2">
+        <f>C3/('Nordhaus GDP growth rates'!B2+1)</f>
+        <v>1338.7846468520577</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1801</v>
+      </c>
+      <c r="C3">
+        <f>C4/('Nordhaus GDP growth rates'!B3+1)</f>
+        <v>1341.1288456693876</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1802</v>
+      </c>
+      <c r="C4">
+        <f>C5/('Nordhaus GDP growth rates'!B4+1)</f>
+        <v>1343.4771491559097</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1803</v>
+      </c>
+      <c r="C5">
+        <f>C6/('Nordhaus GDP growth rates'!B5+1)</f>
+        <v>1345.82956449886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1804</v>
+      </c>
+      <c r="C6">
+        <f>C7/('Nordhaus GDP growth rates'!B6+1)</f>
+        <v>1348.1860988980586</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1805</v>
+      </c>
+      <c r="C7">
+        <f>C8/('Nordhaus GDP growth rates'!B7+1)</f>
+        <v>1350.5467595659327</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1806</v>
+      </c>
+      <c r="C8">
+        <f>C9/('Nordhaus GDP growth rates'!B8+1)</f>
+        <v>1352.9115537275384</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1807</v>
+      </c>
+      <c r="C9">
+        <f>C10/('Nordhaus GDP growth rates'!B9+1)</f>
+        <v>1355.2804886205827</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1808</v>
+      </c>
+      <c r="C10">
+        <f>C11/('Nordhaus GDP growth rates'!B10+1)</f>
+        <v>1357.6535714954459</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1809</v>
+      </c>
+      <c r="C11">
+        <f>C12/('Nordhaus GDP growth rates'!B11+1)</f>
+        <v>1360.0308096152037</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1810</v>
+      </c>
+      <c r="C12">
+        <f>C13/('Nordhaus GDP growth rates'!B12+1)</f>
+        <v>1362.4122102556491</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1811</v>
+      </c>
+      <c r="C13">
+        <f>C14/('Nordhaus GDP growth rates'!B13+1)</f>
+        <v>1364.7977807053153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1812</v>
+      </c>
+      <c r="C14">
+        <f>C15/('Nordhaus GDP growth rates'!B14+1)</f>
+        <v>1367.1875282654973</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1813</v>
+      </c>
+      <c r="C15">
+        <f>C16/('Nordhaus GDP growth rates'!B15+1)</f>
+        <v>1369.5814602502749</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1814</v>
+      </c>
+      <c r="C16">
+        <f>C17/('Nordhaus GDP growth rates'!B16+1)</f>
+        <v>1371.9795839865342</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1815</v>
+      </c>
+      <c r="C17">
+        <f>C18/('Nordhaus GDP growth rates'!B17+1)</f>
+        <v>1374.3819068139915</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1816</v>
+      </c>
+      <c r="C18">
+        <f>C19/('Nordhaus GDP growth rates'!B18+1)</f>
+        <v>1376.788436085214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1817</v>
+      </c>
+      <c r="C19">
+        <f>C20/('Nordhaus GDP growth rates'!B19+1)</f>
+        <v>1379.199179165644</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1818</v>
+      </c>
+      <c r="C20">
+        <f>C21/('Nordhaus GDP growth rates'!B20+1)</f>
+        <v>1381.6141434336198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>1819</v>
+      </c>
+      <c r="C21">
+        <f>C22/('Nordhaus GDP growth rates'!B21+1)</f>
+        <v>1384.0333362803997</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1820</v>
+      </c>
+      <c r="C22">
+        <f>C23/('Nordhaus GDP growth rates'!B22+1)</f>
+        <v>1386.4567651101838</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1821</v>
+      </c>
+      <c r="C23">
+        <f>C24/('Nordhaus GDP growth rates'!B23+1)</f>
+        <v>1388.8844373401369</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1822</v>
+      </c>
+      <c r="C24">
+        <f>C25/('Nordhaus GDP growth rates'!B24+1)</f>
+        <v>1391.316360400411</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1823</v>
+      </c>
+      <c r="C25">
+        <f>C26/('Nordhaus GDP growth rates'!B25+1)</f>
+        <v>1393.7525417341687</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1824</v>
+      </c>
+      <c r="C26">
+        <f>C27/('Nordhaus GDP growth rates'!B26+1)</f>
+        <v>1396.192988797605</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1825</v>
+      </c>
+      <c r="C27">
+        <f>C28/('Nordhaus GDP growth rates'!B27+1)</f>
+        <v>1398.6377090599708</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1826</v>
+      </c>
+      <c r="C28">
+        <f>C29/('Nordhaus GDP growth rates'!B28+1)</f>
+        <v>1401.0867100035957</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>1827</v>
+      </c>
+      <c r="C29">
+        <f>C30/('Nordhaus GDP growth rates'!B29+1)</f>
+        <v>1403.5399991239108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1828</v>
+      </c>
+      <c r="C30">
+        <f>C31/('Nordhaus GDP growth rates'!B30+1)</f>
+        <v>1405.9975839294714</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1829</v>
+      </c>
+      <c r="C31">
+        <f>C32/('Nordhaus GDP growth rates'!B31+1)</f>
+        <v>1408.4594719419804</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1830</v>
+      </c>
+      <c r="C32">
+        <f>C33/('Nordhaus GDP growth rates'!B32+1)</f>
+        <v>1410.9256706963108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1831</v>
+      </c>
+      <c r="C33">
+        <f>C34/('Nordhaus GDP growth rates'!B33+1)</f>
+        <v>1413.3961877405297</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1832</v>
+      </c>
+      <c r="C34">
+        <f>C35/('Nordhaus GDP growth rates'!B34+1)</f>
+        <v>1415.8710306359203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>1833</v>
+      </c>
+      <c r="C35">
+        <f>C36/('Nordhaus GDP growth rates'!B35+1)</f>
+        <v>1418.3502069570056</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>1834</v>
+      </c>
+      <c r="C36">
+        <f>C37/('Nordhaus GDP growth rates'!B36+1)</f>
+        <v>1420.8337242915718</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1835</v>
+      </c>
+      <c r="C37">
+        <f>C38/('Nordhaus GDP growth rates'!B37+1)</f>
+        <v>1423.321590240691</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>1836</v>
+      </c>
+      <c r="C38">
+        <f>C39/('Nordhaus GDP growth rates'!B38+1)</f>
+        <v>1425.8138124187444</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>1837</v>
+      </c>
+      <c r="C39">
+        <f>C40/('Nordhaus GDP growth rates'!B39+1)</f>
+        <v>1428.3103984534466</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>1838</v>
+      </c>
+      <c r="C40">
+        <f>C41/('Nordhaus GDP growth rates'!B40+1)</f>
+        <v>1430.8113559858677</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>1839</v>
+      </c>
+      <c r="C41">
+        <f>C42/('Nordhaus GDP growth rates'!B41+1)</f>
+        <v>1433.3166926704575</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>1840</v>
+      </c>
+      <c r="C42">
+        <f>C43/('Nordhaus GDP growth rates'!B42+1)</f>
+        <v>1435.8264161750687</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>1841</v>
+      </c>
+      <c r="C43">
+        <f>C44/('Nordhaus GDP growth rates'!B43+1)</f>
+        <v>1438.3405341809803</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>1842</v>
+      </c>
+      <c r="C44">
+        <f>C45/('Nordhaus GDP growth rates'!B44+1)</f>
+        <v>1440.8590543829207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>1843</v>
+      </c>
+      <c r="C45">
+        <f>C46/('Nordhaus GDP growth rates'!B45+1)</f>
+        <v>1443.3819844890922</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>1844</v>
+      </c>
+      <c r="C46">
+        <f>C47/('Nordhaus GDP growth rates'!B46+1)</f>
+        <v>1445.9093322211943</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1845</v>
+      </c>
+      <c r="C47">
+        <f>C48/('Nordhaus GDP growth rates'!B47+1)</f>
+        <v>1448.4411053144465</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>1846</v>
+      </c>
+      <c r="C48">
+        <f>C49/('Nordhaus GDP growth rates'!B48+1)</f>
+        <v>1450.9773115176129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>1847</v>
+      </c>
+      <c r="C49">
+        <f>C50/('Nordhaus GDP growth rates'!B49+1)</f>
+        <v>1453.5179585930255</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>1848</v>
+      </c>
+      <c r="C50">
+        <f>C51/('Nordhaus GDP growth rates'!B50+1)</f>
+        <v>1456.0630543166083</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>1849</v>
+      </c>
+      <c r="C51">
+        <f>C52/('Nordhaus GDP growth rates'!B51+1)</f>
+        <v>1458.6126064779005</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>1850</v>
+      </c>
+      <c r="C52">
+        <f>C53/('Nordhaus GDP growth rates'!B52+1)</f>
+        <v>1461.1666228800811</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>1851</v>
+      </c>
+      <c r="C53">
+        <f>C54/('Nordhaus GDP growth rates'!B53+1)</f>
+        <v>1472.0109069726802</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>1852</v>
+      </c>
+      <c r="C54">
+        <f>C55/('Nordhaus GDP growth rates'!B54+1)</f>
+        <v>1482.9356736711914</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>1853</v>
+      </c>
+      <c r="C55">
+        <f>C56/('Nordhaus GDP growth rates'!B55+1)</f>
+        <v>1493.9415202902733</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>1854</v>
+      </c>
+      <c r="C56">
+        <f>C57/('Nordhaus GDP growth rates'!B56+1)</f>
+        <v>1505.0290485776525</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>1855</v>
+      </c>
+      <c r="C57">
+        <f>C58/('Nordhaus GDP growth rates'!B57+1)</f>
+        <v>1516.1988647470228</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>1856</v>
+      </c>
+      <c r="C58">
+        <f>C59/('Nordhaus GDP growth rates'!B58+1)</f>
+        <v>1527.4515795111913</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>1857</v>
+      </c>
+      <c r="C59">
+        <f>C60/('Nordhaus GDP growth rates'!B59+1)</f>
+        <v>1538.7878081154688</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>1858</v>
+      </c>
+      <c r="C60">
+        <f>C61/('Nordhaus GDP growth rates'!B60+1)</f>
+        <v>1550.2081703713081</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>1859</v>
+      </c>
+      <c r="C61">
+        <f>C62/('Nordhaus GDP growth rates'!B61+1)</f>
+        <v>1561.7132906901934</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>1860</v>
+      </c>
+      <c r="C62">
+        <f>C63/('Nordhaus GDP growth rates'!B62+1)</f>
+        <v>1573.3037981177793</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>1861</v>
+      </c>
+      <c r="C63">
+        <f>C64/('Nordhaus GDP growth rates'!B63+1)</f>
+        <v>1584.9803263682843</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>1862</v>
+      </c>
+      <c r="C64">
+        <f>C65/('Nordhaus GDP growth rates'!B64+1)</f>
+        <v>1596.7435138591395</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>1863</v>
+      </c>
+      <c r="C65">
+        <f>C66/('Nordhaus GDP growth rates'!B65+1)</f>
+        <v>1608.5940037458938</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>1864</v>
+      </c>
+      <c r="C66">
+        <f>C67/('Nordhaus GDP growth rates'!B66+1)</f>
+        <v>1620.5324439573792</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>1865</v>
+      </c>
+      <c r="C67">
+        <f>C68/('Nordhaus GDP growth rates'!B67+1)</f>
+        <v>1632.559487231136</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>1866</v>
+      </c>
+      <c r="C68">
+        <f>C69/('Nordhaus GDP growth rates'!B68+1)</f>
+        <v>1644.6757911491015</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>1867</v>
+      </c>
+      <c r="C69">
+        <f>C70/('Nordhaus GDP growth rates'!B69+1)</f>
+        <v>1656.8820181735637</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>1868</v>
+      </c>
+      <c r="C70">
+        <f>C71/('Nordhaus GDP growth rates'!B70+1)</f>
+        <v>1669.1788356833815</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>1869</v>
+      </c>
+      <c r="C71">
+        <f>C72/('Nordhaus GDP growth rates'!B71+1)</f>
+        <v>1681.5669160104737</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>1870</v>
+      </c>
+      <c r="C72">
+        <f>C73/('Nordhaus GDP growth rates'!B72+1)</f>
+        <v>1694.046936476579</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>1871</v>
+      </c>
+      <c r="C73">
+        <f>C74/('Nordhaus GDP growth rates'!B73+1)</f>
+        <v>1706.6195794302889</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>1872</v>
+      </c>
+      <c r="C74">
+        <f>C75/('Nordhaus GDP growth rates'!B74+1)</f>
+        <v>1719.285532284355</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75">
+        <v>1873</v>
+      </c>
+      <c r="C75">
+        <f>C76/('Nordhaus GDP growth rates'!B75+1)</f>
+        <v>1732.0454875532737</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>1874</v>
+      </c>
+      <c r="C76">
+        <f>C77/('Nordhaus GDP growth rates'!B76+1)</f>
+        <v>1744.9001428911499</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>1875</v>
+      </c>
+      <c r="C77">
+        <f>C78/('Nordhaus GDP growth rates'!B77+1)</f>
+        <v>1757.8502011298408</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>1876</v>
+      </c>
+      <c r="C78">
+        <f>C79/('Nordhaus GDP growth rates'!B78+1)</f>
+        <v>1778.1388201389543</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>1877</v>
+      </c>
+      <c r="C79">
+        <f>C80/('Nordhaus GDP growth rates'!B79+1)</f>
+        <v>1798.6616047561683</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>1878</v>
+      </c>
+      <c r="C80">
+        <f>C81/('Nordhaus GDP growth rates'!B80+1)</f>
+        <v>1819.4212576559225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>1879</v>
+      </c>
+      <c r="C81">
+        <f>C82/('Nordhaus GDP growth rates'!B81+1)</f>
+        <v>1840.420512706175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>1880</v>
+      </c>
+      <c r="C82">
+        <f>C83/('Nordhaus GDP growth rates'!B82+1)</f>
+        <v>1861.6621353284288</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>1881</v>
+      </c>
+      <c r="C83">
+        <f>C84/('Nordhaus GDP growth rates'!B83+1)</f>
+        <v>1883.1489228619141</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>1882</v>
+      </c>
+      <c r="C84">
+        <f>C85/('Nordhaus GDP growth rates'!B84+1)</f>
+        <v>1904.8837049319741</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>1883</v>
+      </c>
+      <c r="C85">
+        <f>C86/('Nordhaus GDP growth rates'!B85+1)</f>
+        <v>1926.8693438227017</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>1884</v>
+      </c>
+      <c r="C86">
+        <f>C87/('Nordhaus GDP growth rates'!B86+1)</f>
+        <v>1949.1087348538786</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>1885</v>
+      </c>
+      <c r="C87">
+        <f>C88/('Nordhaus GDP growth rates'!B87+1)</f>
+        <v>1971.6048067622635</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>1886</v>
+      </c>
+      <c r="C88">
+        <f>C89/('Nordhaus GDP growth rates'!B88+1)</f>
+        <v>1994.3605220872817</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>1887</v>
+      </c>
+      <c r="C89">
+        <f>C90/('Nordhaus GDP growth rates'!B89+1)</f>
+        <v>2017.3788775611658</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>1888</v>
+      </c>
+      <c r="C90">
+        <f>C91/('Nordhaus GDP growth rates'!B90+1)</f>
+        <v>2040.6629045036007</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>1889</v>
+      </c>
+      <c r="C91">
+        <f>C92/('Nordhaus GDP growth rates'!B91+1)</f>
+        <v>2064.2156692209205</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>1890</v>
+      </c>
+      <c r="C92">
+        <f>C93/('Nordhaus GDP growth rates'!B92+1)</f>
+        <v>2088.0402734099166</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>1891</v>
+      </c>
+      <c r="C93">
+        <f>C94/('Nordhaus GDP growth rates'!B93+1)</f>
+        <v>2112.1398545663033</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>1892</v>
+      </c>
+      <c r="C94">
+        <f>C95/('Nordhaus GDP growth rates'!B94+1)</f>
+        <v>2136.5175863978993</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>1893</v>
+      </c>
+      <c r="C95">
+        <f>C96/('Nordhaus GDP growth rates'!B95+1)</f>
+        <v>2161.1766792425778</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>1894</v>
+      </c>
+      <c r="C96">
+        <f>C97/('Nordhaus GDP growth rates'!B96+1)</f>
+        <v>2186.120380491041</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>1895</v>
+      </c>
+      <c r="C97">
+        <f>C98/('Nordhaus GDP growth rates'!B97+1)</f>
+        <v>2211.3519750144728</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>1896</v>
+      </c>
+      <c r="C98">
+        <f>C99/('Nordhaus GDP growth rates'!B98+1)</f>
+        <v>2236.8747855971283</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>1897</v>
+      </c>
+      <c r="C99">
+        <f>C100/('Nordhaus GDP growth rates'!B99+1)</f>
+        <v>2262.6921733739155</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>1898</v>
+      </c>
+      <c r="C100">
+        <f>C101/('Nordhaus GDP growth rates'!B100+1)</f>
+        <v>2288.8075382730294</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>1899</v>
+      </c>
+      <c r="C101">
+        <f>C102/('Nordhaus GDP growth rates'!B101+1)</f>
+        <v>2315.2243194636917</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>1900</v>
+      </c>
+      <c r="C102">
+        <f>C103/('Nordhaus GDP growth rates'!B102+1)</f>
+        <v>2341.9459958090606</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>1901</v>
+      </c>
+      <c r="C103">
+        <f>C104/('Nordhaus GDP growth rates'!B103+1)</f>
+        <v>2366.0465981807793</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>1902</v>
+      </c>
+      <c r="C104">
+        <f>C105/('Nordhaus GDP growth rates'!B104+1)</f>
+        <v>2390.3952161069637</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>1903</v>
+      </c>
+      <c r="C105">
+        <f>C106/('Nordhaus GDP growth rates'!B105+1)</f>
+        <v>2414.9944018771507</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>1904</v>
+      </c>
+      <c r="C106">
+        <f>C107/('Nordhaus GDP growth rates'!B106+1)</f>
+        <v>2439.8467340460916</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>1905</v>
+      </c>
+      <c r="C107">
+        <f>C108/('Nordhaus GDP growth rates'!B107+1)</f>
+        <v>2464.9548177040442</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>1906</v>
+      </c>
+      <c r="C108">
+        <f>C109/('Nordhaus GDP growth rates'!B108+1)</f>
+        <v>2490.3212847498457</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>1907</v>
+      </c>
+      <c r="C109">
+        <f>C110/('Nordhaus GDP growth rates'!B109+1)</f>
+        <v>2515.9487941667953</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>1908</v>
+      </c>
+      <c r="C110">
+        <f>C111/('Nordhaus GDP growth rates'!B110+1)</f>
+        <v>2541.8400323013757</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>1909</v>
+      </c>
+      <c r="C111">
+        <f>C112/('Nordhaus GDP growth rates'!B111+1)</f>
+        <v>2567.9977131448441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>1910</v>
+      </c>
+      <c r="C112">
+        <f>C113/('Nordhaus GDP growth rates'!B112+1)</f>
+        <v>2594.4245786177203</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>1911</v>
+      </c>
+      <c r="C113">
+        <f>C114/('Nordhaus GDP growth rates'!B113+1)</f>
+        <v>2621.1233988572017</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>1912</v>
+      </c>
+      <c r="C114">
+        <f>C115/('Nordhaus GDP growth rates'!B114+1)</f>
+        <v>2648.0969725075379</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>1913</v>
+      </c>
+      <c r="C115">
+        <f>C116/('Nordhaus GDP growth rates'!B115+1)</f>
+        <v>2675.3481270133907</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>1914</v>
+      </c>
+      <c r="C116">
+        <f>C117/('Nordhaus GDP growth rates'!B116+1)</f>
+        <v>2702.8797189162165</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>1915</v>
+      </c>
+      <c r="C117">
+        <f>C118/('Nordhaus GDP growth rates'!B117+1)</f>
+        <v>2730.6946341536955</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>1916</v>
+      </c>
+      <c r="C118">
+        <f>C119/('Nordhaus GDP growth rates'!B118+1)</f>
+        <v>2758.7957883622444</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>1917</v>
+      </c>
+      <c r="C119">
+        <f>C120/('Nordhaus GDP growth rates'!B119+1)</f>
+        <v>2787.186127182641</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>1918</v>
+      </c>
+      <c r="C120">
+        <f>C121/('Nordhaus GDP growth rates'!B120+1)</f>
+        <v>2815.8686265687952</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>1919</v>
+      </c>
+      <c r="C121">
+        <f>C122/('Nordhaus GDP growth rates'!B121+1)</f>
+        <v>2844.8462930996957</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>1920</v>
+      </c>
+      <c r="C122">
+        <f>C123/('Nordhaus GDP growth rates'!B122+1)</f>
+        <v>2874.1221642945684</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>1921</v>
+      </c>
+      <c r="C123">
+        <f>C124/('Nordhaus GDP growth rates'!B123+1)</f>
+        <v>2939.6713516834184</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>1922</v>
+      </c>
+      <c r="C124">
+        <f>C125/('Nordhaus GDP growth rates'!B124+1)</f>
+        <v>3006.715498479602</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>1923</v>
+      </c>
+      <c r="C125">
+        <f>C126/('Nordhaus GDP growth rates'!B125+1)</f>
+        <v>3075.2886997454475</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>1924</v>
+      </c>
+      <c r="C126">
+        <f>C127/('Nordhaus GDP growth rates'!B126+1)</f>
+        <v>3145.4258281384937</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>1925</v>
+      </c>
+      <c r="C127">
+        <f>C128/('Nordhaus GDP growth rates'!B127+1)</f>
+        <v>3217.1625516458553</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>1926</v>
+      </c>
+      <c r="C128">
+        <f>C129/('Nordhaus GDP growth rates'!B128+1)</f>
+        <v>3210.0852469386027</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>1927</v>
+      </c>
+      <c r="C129">
+        <f>C130/('Nordhaus GDP growth rates'!B129+1)</f>
+        <v>3203.0235113053759</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>1928</v>
+      </c>
+      <c r="C130">
+        <f>C131/('Nordhaus GDP growth rates'!B130+1)</f>
+        <v>3195.9773104964033</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>1929</v>
+      </c>
+      <c r="C131">
+        <f>C132/('Nordhaus GDP growth rates'!B131+1)</f>
+        <v>3188.9466103372592</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>1930</v>
+      </c>
+      <c r="C132">
+        <f>C133/('Nordhaus GDP growth rates'!B132+1)</f>
+        <v>3181.9313767286958</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>1931</v>
+      </c>
+      <c r="C133">
+        <f>C134/('Nordhaus GDP growth rates'!B133+1)</f>
+        <v>3217.0362799264076</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>1932</v>
+      </c>
+      <c r="C134">
+        <f>C135/('Nordhaus GDP growth rates'!B134+1)</f>
+        <v>3252.5284806747622</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>1933</v>
+      </c>
+      <c r="C135">
+        <f>C136/('Nordhaus GDP growth rates'!B135+1)</f>
+        <v>3288.4122518638428</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>1934</v>
+      </c>
+      <c r="C136">
+        <f>C137/('Nordhaus GDP growth rates'!B136+1)</f>
+        <v>3324.6919135247213</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>1935</v>
+      </c>
+      <c r="C137">
+        <f>C138/('Nordhaus GDP growth rates'!B137+1)</f>
+        <v>3361.3718333495453</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>1936</v>
+      </c>
+      <c r="C138">
+        <f>C139/('Nordhaus GDP growth rates'!B138+1)</f>
+        <v>3398.4564272173634</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>1937</v>
+      </c>
+      <c r="C139">
+        <f>C140/('Nordhaus GDP growth rates'!B139+1)</f>
+        <v>3435.9501597257499</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>1938</v>
+      </c>
+      <c r="C140">
+        <f>C141/('Nordhaus GDP growth rates'!B140+1)</f>
+        <v>3473.8575447282956</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>1939</v>
+      </c>
+      <c r="C141">
+        <f>C142/('Nordhaus GDP growth rates'!B141+1)</f>
+        <v>3512.1831458780298</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>1940</v>
+      </c>
+      <c r="C142">
+        <f>C143/('Nordhaus GDP growth rates'!B142+1)</f>
+        <v>3550.9315771768347</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>1941</v>
+      </c>
+      <c r="C143">
+        <f>C144/('Nordhaus GDP growth rates'!B143+1)</f>
+        <v>3590.2624445706188</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>1942</v>
+      </c>
+      <c r="C144">
+        <f>C145/('Nordhaus GDP growth rates'!B144+1)</f>
+        <v>3630.0289489504516</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>1943</v>
+      </c>
+      <c r="C145">
+        <f>C146/('Nordhaus GDP growth rates'!B145+1)</f>
+        <v>3670.2359155235104</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>1944</v>
+      </c>
+      <c r="C146">
+        <f>C147/('Nordhaus GDP growth rates'!B146+1)</f>
+        <v>3710.8882229419842</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>1945</v>
+      </c>
+      <c r="C147">
+        <f>C148/('Nordhaus GDP growth rates'!B147+1)</f>
+        <v>3751.9908038950434</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>1946</v>
+      </c>
+      <c r="C148">
+        <f>C149/('Nordhaus GDP growth rates'!B148+1)</f>
+        <v>3793.5486457073648</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>1947</v>
+      </c>
+      <c r="C149">
+        <f>C150/('Nordhaus GDP growth rates'!B149+1)</f>
+        <v>3835.5667909442855</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>1948</v>
+      </c>
+      <c r="C150">
+        <f>C151/('Nordhaus GDP growth rates'!B150+1)</f>
+        <v>3878.0503380236605</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>1949</v>
+      </c>
+      <c r="C151">
+        <f>C152/('Nordhaus GDP growth rates'!B151+1)</f>
+        <v>3921.004441834496</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>1950</v>
+      </c>
+      <c r="C152">
+        <f>C153/('Nordhaus GDP growth rates'!B152+1)</f>
+        <v>3964.4343143624369</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>1951</v>
+      </c>
+      <c r="C153">
+        <f>C154/('Nordhaus GDP growth rates'!B153+1)</f>
+        <v>4092.0528339373941</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>1952</v>
+      </c>
+      <c r="C154">
+        <f>C155/('Nordhaus GDP growth rates'!B154+1)</f>
+        <v>4223.7795024302186</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>1953</v>
+      </c>
+      <c r="C155">
+        <f>C156/('Nordhaus GDP growth rates'!B155+1)</f>
+        <v>4359.746564656064</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156">
+        <v>1954</v>
+      </c>
+      <c r="C156">
+        <f>C157/('Nordhaus GDP growth rates'!B156+1)</f>
+        <v>4500.0905225033994</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>1955</v>
+      </c>
+      <c r="C157">
+        <f>C158/('Nordhaus GDP growth rates'!B157+1)</f>
+        <v>4644.9522719728284</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>1956</v>
+      </c>
+      <c r="C158">
+        <f>C159/('Nordhaus GDP growth rates'!B158+1)</f>
+        <v>4746.8203179444108</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>1957</v>
+      </c>
+      <c r="C159">
+        <f>C160/('Nordhaus GDP growth rates'!B159+1)</f>
+        <v>4850.9224232092793</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>1958</v>
+      </c>
+      <c r="C160">
+        <f>C161/('Nordhaus GDP growth rates'!B160+1)</f>
+        <v>4957.3075827282992</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>1959</v>
+      </c>
+      <c r="C161">
+        <f>C162/('Nordhaus GDP growth rates'!B161+1)</f>
+        <v>5066.0258659665806</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>1960</v>
+      </c>
+      <c r="C162">
+        <f>C163/('Nordhaus GDP growth rates'!B162+1)</f>
+        <v>5177.1284404583357</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>1961</v>
+      </c>
+      <c r="C163">
+        <f>C164/('Nordhaus GDP growth rates'!B163+1)</f>
+        <v>5337.1480577369493</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>1962</v>
+      </c>
+      <c r="C164">
+        <f>C165/('Nordhaus GDP growth rates'!B164+1)</f>
+        <v>5502.1137137720843</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>1963</v>
+      </c>
+      <c r="C165">
+        <f>C166/('Nordhaus GDP growth rates'!B165+1)</f>
+        <v>5672.1782854409448</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166">
+        <v>1964</v>
+      </c>
+      <c r="C166">
+        <f>C167/('Nordhaus GDP growth rates'!B166+1)</f>
+        <v>5847.4993748848774</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>1965</v>
+      </c>
+      <c r="C167">
+        <f>C168/('Nordhaus GDP growth rates'!B167+1)</f>
+        <v>6028.2394555623368</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>1966</v>
+      </c>
+      <c r="C168">
+        <f>C169/('Nordhaus GDP growth rates'!B168+1)</f>
+        <v>6208.8230122037785</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>1967</v>
+      </c>
+      <c r="C169">
+        <f>C170/('Nordhaus GDP growth rates'!B169+1)</f>
+        <v>6394.8161782626394</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170">
+        <v>1968</v>
+      </c>
+      <c r="C170">
+        <f>C171/('Nordhaus GDP growth rates'!B170+1)</f>
+        <v>6586.3810054483529</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171">
+        <v>1969</v>
+      </c>
+      <c r="C171">
+        <f>C172/('Nordhaus GDP growth rates'!B171+1)</f>
+        <v>6783.6843999347857</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>1970</v>
+      </c>
+      <c r="C172">
+        <f>C173/('Nordhaus GDP growth rates'!B172+1)</f>
+        <v>6986.8982677818803</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>1971</v>
+      </c>
+      <c r="C173">
+        <f>C174/('Nordhaus GDP growth rates'!B173+1)</f>
+        <v>7112.4724856699722</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174">
+        <v>1972</v>
+      </c>
+      <c r="C174">
+        <f>C175/('Nordhaus GDP growth rates'!B174+1)</f>
+        <v>7240.3036255274192</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175">
+        <v>1973</v>
+      </c>
+      <c r="C175">
+        <f>C176/('Nordhaus GDP growth rates'!B175+1)</f>
+        <v>7370.432250591336</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>1974</v>
+      </c>
+      <c r="C176">
+        <f>C177/('Nordhaus GDP growth rates'!B176+1)</f>
+        <v>7502.8996531343246</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>1975</v>
+      </c>
+      <c r="C177">
+        <f>C178/('Nordhaus GDP growth rates'!B177+1)</f>
+        <v>7637.7478675672919</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>1976</v>
+      </c>
+      <c r="C178">
+        <f>C179/('Nordhaus GDP growth rates'!B178+1)</f>
+        <v>7785.456868382018</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179">
+        <v>1977</v>
+      </c>
+      <c r="C179">
+        <f>C180/('Nordhaus GDP growth rates'!B179+1)</f>
+        <v>7936.022463745293</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>1978</v>
+      </c>
+      <c r="C180">
+        <f>C181/('Nordhaus GDP growth rates'!B180+1)</f>
+        <v>8089.4998983095738</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>1979</v>
+      </c>
+      <c r="C181">
+        <f>C182/('Nordhaus GDP growth rates'!B181+1)</f>
+        <v>8245.94548512242</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <v>1980</v>
+      </c>
+      <c r="C182">
+        <f>C183/('Nordhaus GDP growth rates'!B182+1)</f>
+        <v>8405.4166262885501</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>1981</v>
+      </c>
+      <c r="C183">
+        <f>C184/('Nordhaus GDP growth rates'!B183+1)</f>
+        <v>8501.1180029578354</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>1982</v>
+      </c>
+      <c r="C184">
+        <f>C185/('Nordhaus GDP growth rates'!B184+1)</f>
+        <v>8597.9090047942718</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>1983</v>
+      </c>
+      <c r="C185">
+        <f>C186/('Nordhaus GDP growth rates'!B185+1)</f>
+        <v>8695.8020379203863</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186">
+        <v>1984</v>
+      </c>
+      <c r="C186">
+        <f>C187/('Nordhaus GDP growth rates'!B186+1)</f>
+        <v>8794.8096497108345</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>1985</v>
+      </c>
+      <c r="C187">
+        <f>C188/('Nordhaus GDP growth rates'!B187+1)</f>
+        <v>8894.9445304006549</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>1986</v>
+      </c>
+      <c r="C188">
+        <f>C189/('Nordhaus GDP growth rates'!B188+1)</f>
+        <v>9041.0060116028853</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189">
+        <v>1987</v>
+      </c>
+      <c r="C189">
+        <f>C190/('Nordhaus GDP growth rates'!B189+1)</f>
+        <v>9189.4659289300489</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190">
+        <v>1988</v>
+      </c>
+      <c r="C190">
+        <f>C191/('Nordhaus GDP growth rates'!B190+1)</f>
+        <v>9340.3636664538262</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>1989</v>
+      </c>
+      <c r="C191">
+        <f>C192/('Nordhaus GDP growth rates'!B191+1)</f>
+        <v>9493.7392549610977</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192">
+        <v>1990</v>
+      </c>
+      <c r="C192">
+        <f>'World Bank GDP pc data'!B192</f>
+        <v>9649.6333825734837</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>1991</v>
+      </c>
+      <c r="C193">
+        <f>'World Bank GDP pc data'!B193</f>
+        <v>9621.0605681642737</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194">
+        <v>1992</v>
+      </c>
+      <c r="C194">
+        <f>'World Bank GDP pc data'!B194</f>
+        <v>9623.0961900748116</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195">
+        <v>1993</v>
+      </c>
+      <c r="C195">
+        <f>'World Bank GDP pc data'!B195</f>
+        <v>9631.3996042989857</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196">
+        <v>1994</v>
+      </c>
+      <c r="C196">
+        <f>'World Bank GDP pc data'!B196</f>
+        <v>9753.3105911998318</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197">
+        <v>1995</v>
+      </c>
+      <c r="C197">
+        <f>'World Bank GDP pc data'!B197</f>
+        <v>9911.4659841602952</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>1996</v>
+      </c>
+      <c r="C198">
+        <f>'World Bank GDP pc data'!B198</f>
+        <v>10139.760133452766</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199">
+        <v>1997</v>
+      </c>
+      <c r="C199">
+        <f>'World Bank GDP pc data'!B199</f>
+        <v>10385.446738111601</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200">
+        <v>1998</v>
+      </c>
+      <c r="C200">
+        <f>'World Bank GDP pc data'!B200</f>
+        <v>10497.322682403581</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201">
+        <v>1999</v>
+      </c>
+      <c r="C201">
+        <f>'World Bank GDP pc data'!B201</f>
+        <v>10720.04842860996</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202">
+        <v>2000</v>
+      </c>
+      <c r="C202">
+        <f>'World Bank GDP pc data'!B202</f>
+        <v>11079.909240603543</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203">
+        <v>2001</v>
+      </c>
+      <c r="C203">
+        <f>'World Bank GDP pc data'!B203</f>
+        <v>11191.494538328645</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204">
+        <v>2002</v>
+      </c>
+      <c r="C204">
+        <f>'World Bank GDP pc data'!B204</f>
+        <v>11350.058986144439</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205">
+        <v>2003</v>
+      </c>
+      <c r="C205">
+        <f>'World Bank GDP pc data'!B205</f>
+        <v>11627.146297818948</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>2004</v>
+      </c>
+      <c r="C206">
+        <f>'World Bank GDP pc data'!B206</f>
+        <v>12065.978796452915</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207">
+        <v>2005</v>
+      </c>
+      <c r="C207">
+        <f>'World Bank GDP pc data'!B207</f>
+        <v>12461.041134414598</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>2006</v>
+      </c>
+      <c r="C208">
+        <f>'World Bank GDP pc data'!B208</f>
+        <v>12941.187285524144</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209">
+        <v>2007</v>
+      </c>
+      <c r="C209">
+        <f>'World Bank GDP pc data'!B209</f>
+        <v>13445.271290252649</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210">
+        <v>2008</v>
+      </c>
+      <c r="C210">
+        <f>'World Bank GDP pc data'!B210</f>
+        <v>13635.754966466211</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>2009</v>
+      </c>
+      <c r="C211">
+        <f>'World Bank GDP pc data'!B211</f>
+        <v>13381.807288988113</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212">
+        <v>2010</v>
+      </c>
+      <c r="C212">
+        <f>'World Bank GDP pc data'!B212</f>
+        <v>13890.513904110498</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213">
+        <v>2011</v>
+      </c>
+      <c r="C213">
+        <f>'World Bank GDP pc data'!B213</f>
+        <v>14260.359827294367</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214">
+        <v>2012</v>
+      </c>
+      <c r="C214">
+        <f>'World Bank GDP pc data'!B214</f>
+        <v>14539.897691370574</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>2013</v>
+      </c>
+      <c r="C215">
+        <f>'World Bank GDP pc data'!B215</f>
+        <v>14843.539364316446</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>2014</v>
+      </c>
+      <c r="C216">
+        <f>'World Bank GDP pc data'!B216</f>
+        <v>15177.201701007612</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>2015</v>
+      </c>
+      <c r="C217">
+        <f>'World Bank GDP pc data'!B217</f>
+        <v>15509.996466721966</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218">
+        <v>2016</v>
+      </c>
+      <c r="C218">
+        <f>'World Bank GDP pc data'!B218</f>
+        <v>15829.678514203513</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>2017</v>
+      </c>
+      <c r="C219">
+        <f>'World Bank GDP pc data'!B219</f>
+        <v>16242.884608711729</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220">
+        <v>2018</v>
+      </c>
+      <c r="C220">
+        <f>'World Bank GDP pc data'!B220</f>
+        <v>16636.848010956524</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221">
+        <v>2019</v>
+      </c>
+      <c r="C221">
+        <f>'World Bank GDP pc data'!B221</f>
+        <v>16915.287846149524</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222">
+        <v>2020</v>
+      </c>
+      <c r="C222">
+        <f>'World Bank GDP pc data'!B222</f>
+        <v>16194.040309870441</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7892F97-F333-C043-A43F-655C5BE1AE6C}">
   <dimension ref="A3:B9"/>
   <sheetViews>
@@ -17209,7 +22959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC33F35-03C0-3645-9E63-90FDC883AF59}">
   <dimension ref="A1:G222"/>
   <sheetViews>
@@ -18919,12 +24669,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E00BE6E-9E74-C84D-8C51-257740234ACC}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD203"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18963,7 +24713,7 @@
         <v>1801</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B52" si="0">($C$52/$C$2)^(1/($A$52-$A$2)) - 1</f>
+        <f t="shared" ref="B3:B51" si="0">($C$52/$C$2)^(1/($A$52-$A$2)) - 1</f>
         <v>8.6528799254221855E-3</v>
       </c>
     </row>
@@ -19416,7 +25166,7 @@
         <v>1851</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B77" si="1">($C$77/$C$52)^(1/($A$77-$A$52)) - 1</f>
+        <f t="shared" ref="B53:B76" si="1">($C$77/$C$52)^(1/($A$77-$A$52)) - 1</f>
         <v>1.440981240971495E-2</v>
       </c>
     </row>
@@ -19644,7 +25394,7 @@
         <v>1876</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:B102" si="2">($C$102/$C$77)^(1/($A$102-$A$77)) - 1</f>
+        <f t="shared" ref="B78:B101" si="2">($C$102/$C$77)^(1/($A$102-$A$77)) - 1</f>
         <v>1.8536271122056691E-2</v>
       </c>
     </row>
@@ -19872,7 +25622,7 @@
         <v>1901</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:B122" si="3">($C$122/$C$102)^(1/($A$122-$A$102)) - 1</f>
+        <f t="shared" ref="B103:B121" si="3">($C$122/$C$102)^(1/($A$122-$A$102)) - 1</f>
         <v>1.725399919905235E-2</v>
       </c>
     </row>
@@ -20055,7 +25805,7 @@
         <v>1921</v>
       </c>
       <c r="B123">
-        <f t="shared" ref="B123:B127" si="4">($C$127/$C$122)^(1/($A$127-$A$122)) - 1</f>
+        <f t="shared" ref="B123:B126" si="4">($C$127/$C$122)^(1/($A$127-$A$122)) - 1</f>
         <v>2.9950549455014075E-2</v>
       </c>
     </row>
@@ -20103,7 +25853,7 @@
         <v>1926</v>
       </c>
       <c r="B128">
-        <f t="shared" ref="B128:B132" si="5">($C$132/$C$127)^(1/($A$132-$A$127)) - 1</f>
+        <f t="shared" ref="B128:B131" si="5">($C$132/$C$127)^(1/($A$132-$A$127)) - 1</f>
         <v>4.649699858515044E-3</v>
       </c>
     </row>
@@ -20151,7 +25901,7 @@
         <v>1931</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B142" si="6">($C$142/$C$132)^(1/($A$142-$A$132)) - 1</f>
+        <f t="shared" ref="B133:B141" si="6">($C$142/$C$132)^(1/($A$142-$A$132)) - 1</f>
         <v>1.8039580907659891E-2</v>
       </c>
     </row>
@@ -20244,7 +25994,7 @@
         <v>1941</v>
       </c>
       <c r="B143">
-        <f t="shared" ref="B143:B152" si="7">($C$152/$C$142)^(1/($A$152-$A$142)) - 1</f>
+        <f t="shared" ref="B143:B151" si="7">($C$152/$C$142)^(1/($A$152-$A$142)) - 1</f>
         <v>1.8073459992324903E-2</v>
       </c>
     </row>
@@ -20337,7 +26087,7 @@
         <v>1951</v>
       </c>
       <c r="B153">
-        <f t="shared" ref="B153:B157" si="8">($C$157/$C$152)^(1/($A$157-$A$152)) - 1</f>
+        <f t="shared" ref="B153:B156" si="8">($C$157/$C$152)^(1/($A$157-$A$152)) - 1</f>
         <v>3.9429046433822501E-2</v>
       </c>
     </row>
@@ -20385,7 +26135,7 @@
         <v>1956</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:B162" si="9">($C$162/$C$157)^(1/($A$162-$A$157)) - 1</f>
+        <f t="shared" ref="B158:B161" si="9">($C$162/$C$157)^(1/($A$162-$A$157)) - 1</f>
         <v>2.9235763080378341E-2</v>
       </c>
     </row>
@@ -20433,7 +26183,7 @@
         <v>1961</v>
       </c>
       <c r="B163">
-        <f t="shared" ref="B163:B167" si="10">($C$167/$C$162)^(1/($A$167-$A$162)) - 1</f>
+        <f t="shared" ref="B163:B166" si="10">($C$167/$C$162)^(1/($A$167-$A$162)) - 1</f>
         <v>3.7775303794726822E-2</v>
       </c>
     </row>
@@ -20481,7 +26231,7 @@
         <v>1966</v>
       </c>
       <c r="B168">
-        <f t="shared" ref="B168:B172" si="11">($C$172/$C$167)^(1/($A$172-$A$167)) - 1</f>
+        <f t="shared" ref="B168:B171" si="11">($C$172/$C$167)^(1/($A$172-$A$167)) - 1</f>
         <v>3.7061464120942356E-2</v>
       </c>
     </row>
@@ -20529,7 +26279,7 @@
         <v>1971</v>
       </c>
       <c r="B173">
-        <f t="shared" ref="B173:B177" si="12">($C$177/$C$172)^(1/($A$177-$A$172)) - 1</f>
+        <f t="shared" ref="B173:B176" si="12">($C$177/$C$172)^(1/($A$177-$A$172)) - 1</f>
         <v>2.5039649265546027E-2</v>
       </c>
     </row>
@@ -20577,7 +26327,7 @@
         <v>1976</v>
       </c>
       <c r="B178">
-        <f t="shared" ref="B178:B182" si="13">($C$182/$C$177)^(1/($A$182-$A$177)) - 1</f>
+        <f t="shared" ref="B178:B181" si="13">($C$182/$C$177)^(1/($A$182-$A$177)) - 1</f>
         <v>2.6408465209575738E-2</v>
       </c>
     </row>
@@ -20625,7 +26375,7 @@
         <v>1981</v>
       </c>
       <c r="B183">
-        <f t="shared" ref="B183:B187" si="14">($C$187/$C$182)^(1/($A$187-$A$182)) - 1</f>
+        <f t="shared" ref="B183:B186" si="14">($C$187/$C$182)^(1/($A$187-$A$182)) - 1</f>
         <v>1.8362974290192957E-2</v>
       </c>
     </row>
@@ -20673,7 +26423,7 @@
         <v>1986</v>
       </c>
       <c r="B188">
-        <f t="shared" ref="B188:B192" si="15">($C$192/$C$187)^(1/($A$192-$A$187)) - 1</f>
+        <f t="shared" ref="B188:B191" si="15">($C$192/$C$187)^(1/($A$192-$A$187)) - 1</f>
         <v>2.347267374261075E-2</v>
       </c>
     </row>
@@ -20721,7 +26471,7 @@
         <v>1991</v>
       </c>
       <c r="B193">
-        <f t="shared" ref="B193:B197" si="16">($C$197/$C$192)^(1/($A$197-$A$192)) - 1</f>
+        <f t="shared" ref="B193:B196" si="16">($C$197/$C$192)^(1/($A$197-$A$192)) - 1</f>
         <v>2.3328599718423604E-2</v>
       </c>
     </row>
@@ -20914,10 +26664,2010 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497884EA-6617-DB43-8847-6564FF85C564}">
+  <dimension ref="A1:G222"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1800</v>
+      </c>
+      <c r="B2">
+        <f>($C$52/$C$2)^(1/($A$52-$A$2)) - 1</f>
+        <v>1.7509902155226076E-3</v>
+      </c>
+      <c r="C2">
+        <v>722</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1801</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B51" si="0">($C$52/$C$2)^(1/($A$52-$A$2)) - 1</f>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1802</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1803</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1804</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1805</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1806</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1807</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1808</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1809</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1810</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1811</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1812</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1813</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1814</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1815</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1816</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1817</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1818</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1819</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1820</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1821</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1822</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1823</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1824</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1825</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1826</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1827</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1828</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1829</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1830</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1831</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1832</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1833</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1834</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1835</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1836</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1837</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1838</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1839</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1840</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1841</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1842</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1843</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1844</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1845</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1846</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1847</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1848</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1849</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1.7509902155226076E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1850</v>
+      </c>
+      <c r="B52">
+        <f>($C$77/$C$52)^(1/($A$77-$A$52)) - 1</f>
+        <v>7.4216615153883669E-3</v>
+      </c>
+      <c r="C52">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1851</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B76" si="1">($C$77/$C$52)^(1/($A$77-$A$52)) - 1</f>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1852</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1853</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1854</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1855</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1856</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1857</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1858</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1859</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1860</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1861</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1862</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1863</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1864</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1865</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1866</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1867</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1868</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1869</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1870</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1871</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1872</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1873</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1874</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>7.4216615153883669E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1875</v>
+      </c>
+      <c r="B77">
+        <f>($C$102/$C$77)^(1/($A$102-$A$77)) - 1</f>
+        <v>1.1541722381163799E-2</v>
+      </c>
+      <c r="C77">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1876</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ref="B78:B101" si="2">($C$102/$C$77)^(1/($A$102-$A$77)) - 1</f>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1877</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1878</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1879</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1880</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1881</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1882</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1883</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1884</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1885</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1886</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1887</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1888</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1889</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1890</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1891</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1892</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1893</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1894</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1895</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1896</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1897</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1898</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1899</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>1.1541722381163799E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1900</v>
+      </c>
+      <c r="B102">
+        <f>($C$122/$C$102)^(1/($A$122-$A$102)) - 1</f>
+        <v>1.0290844628717766E-2</v>
+      </c>
+      <c r="C102">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1901</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103:B121" si="3">($C$122/$C$102)^(1/($A$122-$A$102)) - 1</f>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1902</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1903</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1904</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1905</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1906</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1907</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1908</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1909</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1910</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1911</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1912</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1913</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1914</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1915</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1916</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1917</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1918</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1919</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>1.0290844628717766E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1920</v>
+      </c>
+      <c r="B122">
+        <f>($C$127/$C$122)^(1/($A$127-$A$122)) - 1</f>
+        <v>2.2806681011396268E-2</v>
+      </c>
+      <c r="C122">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1921</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ref="B123:B126" si="4">($C$127/$C$122)^(1/($A$127-$A$122)) - 1</f>
+        <v>2.2806681011396268E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1922</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="4"/>
+        <v>2.2806681011396268E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1923</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="4"/>
+        <v>2.2806681011396268E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1924</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="4"/>
+        <v>2.2806681011396268E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1925</v>
+      </c>
+      <c r="B127">
+        <f>($C$132/$C$127)^(1/($A$132-$A$127)) - 1</f>
+        <v>-2.1998592217953306E-3</v>
+      </c>
+      <c r="C127">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1926</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ref="B128:B131" si="5">($C$132/$C$127)^(1/($A$132-$A$127)) - 1</f>
+        <v>-2.1998592217953306E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1927</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="5"/>
+        <v>-2.1998592217953306E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1928</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="5"/>
+        <v>-2.1998592217953306E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1929</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="5"/>
+        <v>-2.1998592217953306E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1930</v>
+      </c>
+      <c r="B132">
+        <f>($C$142/$C$132)^(1/($A$142-$A$132)) - 1</f>
+        <v>1.1032577086499851E-2</v>
+      </c>
+      <c r="C132">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1931</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ref="B133:B141" si="6">($C$142/$C$132)^(1/($A$142-$A$132)) - 1</f>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1932</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1933</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1934</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1935</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1936</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1937</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1938</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1939</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="6"/>
+        <v>1.1032577086499851E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1940</v>
+      </c>
+      <c r="B142">
+        <f>($C$152/$C$142)^(1/($A$152-$A$142)) - 1</f>
+        <v>1.1076210999552361E-2</v>
+      </c>
+      <c r="C142">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1941</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ref="B143:B151" si="7">($C$152/$C$142)^(1/($A$152-$A$142)) - 1</f>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1942</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1943</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1944</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1945</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1946</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1947</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1948</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1949</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="7"/>
+        <v>1.1076210999552361E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1950</v>
+      </c>
+      <c r="B152">
+        <f>($C$157/$C$152)^(1/($A$157-$A$152)) - 1</f>
+        <v>3.2190852327308894E-2</v>
+      </c>
+      <c r="C152">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1951</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ref="B153:B156" si="8">($C$157/$C$152)^(1/($A$157-$A$152)) - 1</f>
+        <v>3.2190852327308894E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1952</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="8"/>
+        <v>3.2190852327308894E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1953</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="8"/>
+        <v>3.2190852327308894E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1954</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="8"/>
+        <v>3.2190852327308894E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1955</v>
+      </c>
+      <c r="B157">
+        <f>($C$162/$C$157)^(1/($A$162-$A$157)) - 1</f>
+        <v>2.193091338876485E-2</v>
+      </c>
+      <c r="C157">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1956</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ref="B158:B161" si="9">($C$162/$C$157)^(1/($A$162-$A$157)) - 1</f>
+        <v>2.193091338876485E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1957</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="9"/>
+        <v>2.193091338876485E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1958</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="9"/>
+        <v>2.193091338876485E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1959</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="9"/>
+        <v>2.193091338876485E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1960</v>
+      </c>
+      <c r="B162">
+        <f>($C$167/$C$162)^(1/($A$167-$A$162)) - 1</f>
+        <v>3.0908952543670543E-2</v>
+      </c>
+      <c r="C162">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1961</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ref="B163:B166" si="10">($C$167/$C$162)^(1/($A$167-$A$162)) - 1</f>
+        <v>3.0908952543670543E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1962</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="10"/>
+        <v>3.0908952543670543E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1963</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="10"/>
+        <v>3.0908952543670543E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1964</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="10"/>
+        <v>3.0908952543670543E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1965</v>
+      </c>
+      <c r="B167">
+        <f>($C$172/$C$167)^(1/($A$172-$A$167)) - 1</f>
+        <v>2.9956267990451924E-2</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1966</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ref="B168:B171" si="11">($C$172/$C$167)^(1/($A$172-$A$167)) - 1</f>
+        <v>2.9956267990451924E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1967</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="11"/>
+        <v>2.9956267990451924E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1968</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="11"/>
+        <v>2.9956267990451924E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1969</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="11"/>
+        <v>2.9956267990451924E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1970</v>
+      </c>
+      <c r="B172">
+        <f>($C$177/$C$172)^(1/($A$177-$A$172)) - 1</f>
+        <v>1.7972813267818966E-2</v>
+      </c>
+      <c r="C172">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1971</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ref="B173:B176" si="12">($C$177/$C$172)^(1/($A$177-$A$172)) - 1</f>
+        <v>1.7972813267818966E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1972</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="12"/>
+        <v>1.7972813267818966E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1973</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="12"/>
+        <v>1.7972813267818966E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1974</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="12"/>
+        <v>1.7972813267818966E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1975</v>
+      </c>
+      <c r="B177">
+        <f>($C$182/$C$177)^(1/($A$182-$A$177)) - 1</f>
+        <v>1.9339339734158134E-2</v>
+      </c>
+      <c r="C177">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>1976</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ref="B178:B181" si="13">($C$182/$C$177)^(1/($A$182-$A$177)) - 1</f>
+        <v>1.9339339734158134E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1977</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="13"/>
+        <v>1.9339339734158134E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1978</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="13"/>
+        <v>1.9339339734158134E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>1979</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="13"/>
+        <v>1.9339339734158134E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>1980</v>
+      </c>
+      <c r="B182">
+        <f>($C$187/$C$182)^(1/($A$187-$A$182)) - 1</f>
+        <v>1.1385679130998971E-2</v>
+      </c>
+      <c r="C182">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1981</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ref="B183:B186" si="14">($C$187/$C$182)^(1/($A$187-$A$182)) - 1</f>
+        <v>1.1385679130998971E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1982</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="14"/>
+        <v>1.1385679130998971E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>1983</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="14"/>
+        <v>1.1385679130998971E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>1984</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="14"/>
+        <v>1.1385679130998971E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>1985</v>
+      </c>
+      <c r="B187">
+        <f>($C$192/$C$187)^(1/($A$192-$A$187)) - 1</f>
+        <v>1.6420729854248028E-2</v>
+      </c>
+      <c r="C187">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1986</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ref="B188:B191" si="15">($C$192/$C$187)^(1/($A$192-$A$187)) - 1</f>
+        <v>1.6420729854248028E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>1987</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="15"/>
+        <v>1.6420729854248028E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1988</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="15"/>
+        <v>1.6420729854248028E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>1989</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="15"/>
+        <v>1.6420729854248028E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1990</v>
+      </c>
+      <c r="B192">
+        <f>($C$197/$C$192)^(1/($A$197-$A$192)) - 1</f>
+        <v>1.6257496844586106E-2</v>
+      </c>
+      <c r="C192">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1991</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ref="B193:B196" si="16">($C$197/$C$192)^(1/($A$197-$A$192)) - 1</f>
+        <v>1.6257496844586106E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1992</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="16"/>
+        <v>1.6257496844586106E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1993</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="16"/>
+        <v>1.6257496844586106E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>1994</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="16"/>
+        <v>1.6257496844586106E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>1995</v>
+      </c>
+      <c r="B197">
+        <f>($C$202/$C$197)^(1/($A$202-$A$197)) - 1</f>
+        <v>1.5868406657074452E-2</v>
+      </c>
+      <c r="C197">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>1996</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ref="B198:B202" si="17">($C$202/$C$197)^(1/($A$202-$A$197)) - 1</f>
+        <v>1.5868406657074452E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>1997</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="17"/>
+        <v>1.5868406657074452E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>1998</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="17"/>
+        <v>1.5868406657074452E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>1999</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="17"/>
+        <v>1.5868406657074452E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>2000</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="17"/>
+        <v>1.5868406657074452E-2</v>
+      </c>
+      <c r="C202">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1930528C-D2B7-AF4B-BB1C-36B1EE07CCBA}">
   <dimension ref="A1:B222"/>
   <sheetViews>
